--- a/teaching/traditional_assets/database/data/serbia/serbia_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/serbia/serbia_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0547</v>
-      </c>
-      <c r="E2">
-        <v>0.146</v>
+        <v>0.105</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,16 +600,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.008861003208078583</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008860364193424154</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>83.2</v>
+        <v>57.047</v>
       </c>
       <c r="L2">
-        <v>0.4086444007858546</v>
+        <v>0.3016125621232949</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,67 +633,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>36.7</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.06801334321719793</v>
       </c>
       <c r="W2">
-        <v>0.1255280627640314</v>
+        <v>0.05285284480190647</v>
       </c>
       <c r="X2">
-        <v>0.05513576320110222</v>
+        <v>0.04891653365565385</v>
       </c>
       <c r="Y2">
-        <v>0.07039229956292917</v>
+        <v>0.003936311146252619</v>
       </c>
       <c r="Z2">
-        <v>0.6406958309488441</v>
+        <v>0.2744851046044535</v>
       </c>
       <c r="AA2">
-        <v>0.005676798399415273</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05499412230569423</v>
+        <v>0.04894429125547942</v>
       </c>
       <c r="AC2">
-        <v>-0.04931732390627895</v>
+        <v>-0.04894429125547942</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.255</v>
       </c>
       <c r="AE2">
-        <v>14.079498734176</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>14.079498734176</v>
+        <v>0.255</v>
       </c>
       <c r="AG2">
-        <v>14.079498734176</v>
+        <v>-36.445</v>
       </c>
       <c r="AH2">
-        <v>0.02536483290462612</v>
+        <v>0.0004723490566911485</v>
       </c>
       <c r="AI2">
-        <v>0.02053963504404663</v>
+        <v>0.000315572578599229</v>
       </c>
       <c r="AJ2">
-        <v>0.02536483290462612</v>
+        <v>-0.07243294809750474</v>
       </c>
       <c r="AK2">
-        <v>0.02053963504404663</v>
+        <v>-0.047248024580122</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>3.047510548522944</v>
       </c>
     </row>
     <row r="3">
@@ -716,10 +707,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0547</v>
-      </c>
-      <c r="E3">
-        <v>0.146</v>
+        <v>0.105</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -728,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.008861003208078583</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.008860364193424154</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>83.2</v>
+        <v>56.2</v>
       </c>
       <c r="L3">
-        <v>0.4086444007858546</v>
+        <v>0.308283049917718</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -767,49 +755,49 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.1255280627640314</v>
+        <v>0.08370568960381293</v>
       </c>
       <c r="X3">
-        <v>0.05513576320110222</v>
+        <v>0.04863235737362938</v>
       </c>
       <c r="Y3">
-        <v>0.07039229956292917</v>
+        <v>0.03507333223018355</v>
       </c>
       <c r="Z3">
-        <v>0.6406958309488441</v>
+        <v>0.2715221924337206</v>
       </c>
       <c r="AA3">
-        <v>0.005676798399415273</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05499412230569423</v>
+        <v>0.04863235737362938</v>
       </c>
       <c r="AC3">
-        <v>-0.04931732390627895</v>
+        <v>-0.04863235737362938</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>14.079498734176</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>14.079498734176</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>14.079498734176</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.02536483290462612</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.02053963504404663</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.02536483290462612</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.02053963504404663</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -817,11 +805,118 @@
       <c r="AM3">
         <v>0</v>
       </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>3.047510548522944</v>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ALTA banka a.d. (BELEX:JMBN)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.847</v>
+      </c>
+      <c r="L4">
+        <v>0.1238304093567252</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>-0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>-0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>36.7</v>
+      </c>
+      <c r="V4">
+        <v>2.446666666666667</v>
+      </c>
+      <c r="W4">
+        <v>0.022</v>
+      </c>
+      <c r="X4">
+        <v>0.04920070993767832</v>
+      </c>
+      <c r="Y4">
+        <v>-0.02720070993767832</v>
+      </c>
+      <c r="Z4">
+        <v>0.3870529651425985</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.04925622513732945</v>
+      </c>
+      <c r="AC4">
+        <v>-0.04925622513732945</v>
+      </c>
+      <c r="AD4">
+        <v>0.255</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.255</v>
+      </c>
+      <c r="AG4">
+        <v>-36.445</v>
+      </c>
+      <c r="AH4">
+        <v>0.01671583087512291</v>
+      </c>
+      <c r="AI4">
+        <v>0.006495987772258311</v>
+      </c>
+      <c r="AJ4">
+        <v>1.699463744462579</v>
+      </c>
+      <c r="AK4">
+        <v>-14.26418786692759</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
